--- a/notebooks/results_notebook/Couches_Analyse_Classement.xlsx
+++ b/notebooks/results_notebook/Couches_Analyse_Classement.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3.1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3.2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Electre-tri-Couches" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -819,7 +820,7 @@
         <v>13.16666666666667</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7</v>
+        <v>6.999999999999997</v>
       </c>
       <c r="K10" s="4" t="n">
         <v>10.7</v>
@@ -833,7 +834,7 @@
         <v>13.16666666666667</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>7</v>
+        <v>6.999999999999997</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>10.7</v>
@@ -867,7 +868,7 @@
         <v>12.5</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>7.999999999999999</v>
+        <v>7.999999999999996</v>
       </c>
       <c r="K11" s="4" t="n">
         <v>10.7</v>
@@ -881,7 +882,7 @@
         <v>12.5</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>7.999999999999999</v>
+        <v>7.999999999999996</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>10.7</v>
@@ -1607,7 +1608,7 @@
         <v>13.16666666666667</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7</v>
+        <v>6.999999999999997</v>
       </c>
       <c r="K10" s="4" t="n">
         <v>10.7</v>
@@ -1621,7 +1622,7 @@
         <v>13.16666666666667</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>7</v>
+        <v>6.999999999999997</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>10.7</v>
@@ -1655,7 +1656,7 @@
         <v>12.5</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>7.999999999999999</v>
+        <v>7.999999999999996</v>
       </c>
       <c r="K11" s="4" t="n">
         <v>10.7</v>
@@ -1669,7 +1670,7 @@
         <v>12.5</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>7.999999999999999</v>
+        <v>7.999999999999996</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>10.7</v>
@@ -1973,7 +1974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="B2:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1994,7 +1995,6 @@
     <col customWidth="1" max="11" min="11" width="20"/>
   </cols>
   <sheetData>
-    <row r="1"/>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -2457,8 +2457,6 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="16"/>
-    <row r="17"/>
     <row r="18">
       <c r="H18" s="5" t="inlineStr">
         <is>
@@ -2466,7 +2464,7 @@
         </is>
       </c>
       <c r="I18" s="4" t="n">
-        <v>0.8186210070534754</v>
+        <v>0.8171630878072588</v>
       </c>
     </row>
     <row r="19">
@@ -2476,7 +2474,7 @@
         </is>
       </c>
       <c r="I19" s="4" t="n">
-        <v>0.001130253351862431</v>
+        <v>0.001173348898943019</v>
       </c>
     </row>
     <row r="20">
@@ -2486,7 +2484,7 @@
         </is>
       </c>
       <c r="I20" s="4" t="n">
-        <v>0.7357148541413415</v>
+        <v>0.7297575507997904</v>
       </c>
     </row>
     <row r="21">
@@ -2496,7 +2494,7 @@
         </is>
       </c>
       <c r="I21" s="4" t="n">
-        <v>0.002044231232949268</v>
+        <v>0.002090788248849709</v>
       </c>
     </row>
     <row r="22">
@@ -2516,4 +2514,901 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="20"/>
+    <col customWidth="1" max="2" min="2" width="20"/>
+    <col customWidth="1" max="3" min="3" width="20"/>
+    <col customWidth="1" max="4" min="4" width="20"/>
+    <col customWidth="1" max="5" min="5" width="20"/>
+    <col customWidth="1" max="6" min="6" width="20"/>
+    <col customWidth="1" max="7" min="7" width="20"/>
+    <col customWidth="1" max="8" min="8" width="20"/>
+    <col customWidth="1" max="9" min="9" width="20"/>
+    <col customWidth="1" max="10" min="10" width="20"/>
+    <col customWidth="1" max="11" min="11" width="20"/>
+    <col customWidth="1" max="12" min="12" width="20"/>
+    <col customWidth="1" max="13" min="13" width="20"/>
+    <col customWidth="1" max="14" min="14" width="20"/>
+    <col customWidth="1" max="15" min="15" width="20"/>
+  </cols>
+  <sheetData>
+    <row r="1"/>
+    <row r="2">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Modèle lambda 0.55</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>Modèle lambda 0.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Produit</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Note_magazine</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Eval Pessimiste</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Eval Optimiste</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Classement Optimiste</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Classement Pessimiste</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>Produit</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>Note_magazine</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>Eval Pessimiste</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>Eval Optimiste</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>Classement Optimiste</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>Classement Pessimiste</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>a- Joone</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>C5</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Très Bon</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>Très Bon</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>Très Bon</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>Très Bon</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>a- Joone</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>C5</t>
+        </is>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
+        <is>
+          <t>Très Bon</t>
+        </is>
+      </c>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>Très Bon</t>
+        </is>
+      </c>
+      <c r="N4" s="4" t="inlineStr">
+        <is>
+          <t>Très Bon</t>
+        </is>
+      </c>
+      <c r="O4" s="4" t="inlineStr">
+        <is>
+          <t>Très Bon</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>b- Pamp. Prem</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>b- Pamp. Prem</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="N5" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="O5" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>c- Pamp. Baby</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>c- Pamp. Baby</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="O6" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>d- Naty</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>d- Naty</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="N7" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="O7" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>e- Pamp. Activ.</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>e- Pamp. Activ.</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="L8" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="N8" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="O8" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>f- Carref.Baby</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>f- Carref.Baby</t>
+        </is>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="N9" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="O9" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>g- Lupilu</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>g- Lupilu</t>
+        </is>
+      </c>
+      <c r="K10" s="4" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="L10" s="4" t="inlineStr">
+        <is>
+          <t>Insuffisant</t>
+        </is>
+      </c>
+      <c r="M10" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="N10" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="O10" s="4" t="inlineStr">
+        <is>
+          <t>Insuffisant</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>h- Mots d’enfants </t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>h- Mots d’enfants </t>
+        </is>
+      </c>
+      <c r="K11" s="4" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="L11" s="4" t="inlineStr">
+        <is>
+          <t>Insuffisant</t>
+        </is>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>Insuffisant</t>
+        </is>
+      </c>
+      <c r="N11" s="4" t="inlineStr">
+        <is>
+          <t>Insuffisant</t>
+        </is>
+      </c>
+      <c r="O11" s="4" t="inlineStr">
+        <is>
+          <t>Insuffisant</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>i- Love &amp; Green</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>i- Love &amp; Green</t>
+        </is>
+      </c>
+      <c r="K12" s="4" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="L12" s="4" t="inlineStr">
+        <is>
+          <t>Insuffisant</t>
+        </is>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="N12" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="O12" s="4" t="inlineStr">
+        <is>
+          <t>Insuffisant</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>j- Lotus Baby</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>j- Lotus Baby</t>
+        </is>
+      </c>
+      <c r="K13" s="4" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="L13" s="4" t="inlineStr">
+        <is>
+          <t>Très Insuffisant</t>
+        </is>
+      </c>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="N13" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="O13" s="4" t="inlineStr">
+        <is>
+          <t>Très Insuffisant</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>k- Pommette</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>Bon</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>k- Pommette</t>
+        </is>
+      </c>
+      <c r="K14" s="4" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="L14" s="4" t="inlineStr">
+        <is>
+          <t>Très Insuffisant</t>
+        </is>
+      </c>
+      <c r="M14" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="N14" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="O14" s="4" t="inlineStr">
+        <is>
+          <t>Très Insuffisant</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>l- Lillydoo </t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>Acceptable</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>l- Lillydoo </t>
+        </is>
+      </c>
+      <c r="K15" s="4" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="L15" s="4" t="inlineStr">
+        <is>
+          <t>Très Insuffisant</t>
+        </is>
+      </c>
+      <c r="M15" s="4" t="inlineStr">
+        <is>
+          <t>Insuffisant</t>
+        </is>
+      </c>
+      <c r="N15" s="4" t="inlineStr">
+        <is>
+          <t>Insuffisant</t>
+        </is>
+      </c>
+      <c r="O15" s="4" t="inlineStr">
+        <is>
+          <t>Très Insuffisant</t>
+        </is>
+      </c>
+    </row>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18">
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Tx Optimiste</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>58.33333333333334</v>
+      </c>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>Tx Optimiste</t>
+        </is>
+      </c>
+      <c r="K18" s="4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>Tx Pessimiste</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>Tx Pessimiste</t>
+        </is>
+      </c>
+      <c r="K19" s="4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="J2:M2"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>